--- a/cfs_3_0.9.xlsx
+++ b/cfs_3_0.9.xlsx
@@ -2331,7 +2331,7 @@
         <v>25.58</v>
       </c>
       <c r="I25" t="n">
-        <v>248889.9</v>
+        <v>248889</v>
       </c>
       <c r="J25" t="n">
         <v>234378</v>
@@ -2586,7 +2586,7 @@
         <v>41</v>
       </c>
       <c r="R28" t="n">
-        <v>79.5</v>
+        <v>79</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
@@ -2601,7 +2601,7 @@
         <v>4</v>
       </c>
       <c r="W28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
         <v>3</v>
@@ -2939,7 +2939,7 @@
         <v>23.48</v>
       </c>
       <c r="I33" t="n">
-        <v>248889.9</v>
+        <v>248889</v>
       </c>
       <c r="J33" t="n">
         <v>162347</v>
@@ -3015,7 +3015,7 @@
         <v>23.36</v>
       </c>
       <c r="I34" t="n">
-        <v>253918.6</v>
+        <v>253918</v>
       </c>
       <c r="J34" t="n">
         <v>239093</v>
@@ -3091,7 +3091,7 @@
         <v>23.82</v>
       </c>
       <c r="I35" t="n">
-        <v>248938.1</v>
+        <v>248938</v>
       </c>
       <c r="J35" t="n">
         <v>225193</v>
@@ -3203,7 +3203,7 @@
         <v>4</v>
       </c>
       <c r="U36" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="V36" t="n">
         <v>5</v>
@@ -3377,22 +3377,22 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" t="n">
         <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>10.1</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>30.8</v>
+        <v>30.57</v>
       </c>
       <c r="H39" t="n">
-        <v>28.28</v>
+        <v>24.74</v>
       </c>
       <c r="I39" t="n">
         <v>193983</v>
@@ -3416,7 +3416,7 @@
         <v>244892</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
         <v>61</v>
@@ -3431,7 +3431,7 @@
         <v>4</v>
       </c>
       <c r="U39" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="V39" t="n">
         <v>7</v>
@@ -3507,7 +3507,7 @@
         <v>3</v>
       </c>
       <c r="U40" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V40" t="n">
         <v>3</v>
@@ -4115,7 +4115,7 @@
         <v>3</v>
       </c>
       <c r="U48" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V48" t="n">
         <v>6</v>
@@ -4191,7 +4191,7 @@
         <v>3</v>
       </c>
       <c r="U49" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V49" t="n">
         <v>4</v>
@@ -4343,7 +4343,7 @@
         <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V51" t="n">
         <v>3</v>
@@ -4495,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="U53" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V53" t="n">
         <v>4</v>
@@ -4571,7 +4571,7 @@
         <v>3</v>
       </c>
       <c r="U54" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V54" t="n">
         <v>4</v>
@@ -4647,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="U55" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V55" t="n">
         <v>8</v>
@@ -4723,7 +4723,7 @@
         <v>3</v>
       </c>
       <c r="U56" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V56" t="n">
         <v>4</v>
@@ -4821,22 +4821,22 @@
         <v>77</v>
       </c>
       <c r="C58" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>10.1</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>30.8</v>
+        <v>30.57</v>
       </c>
       <c r="H58" t="n">
-        <v>28.28</v>
+        <v>24.54</v>
       </c>
       <c r="I58" t="n">
         <v>193476</v>
@@ -4875,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="U58" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="V58" t="n">
         <v>6</v>
@@ -5179,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="U62" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V62" t="n">
         <v>7</v>
@@ -5407,7 +5407,7 @@
         <v>3</v>
       </c>
       <c r="U65" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V65" t="n">
         <v>4</v>
@@ -5635,7 +5635,7 @@
         <v>4</v>
       </c>
       <c r="U68" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="V68" t="n">
         <v>4</v>
@@ -5787,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="U70" t="n">
-        <v>73.2</v>
+        <v>73</v>
       </c>
       <c r="V70" t="n">
         <v>5</v>
